--- a/data/financial_statements/sofp/TFC.xlsx
+++ b/data/financial_statements/sofp/TFC.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -107,9 +227,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -162,12 +279,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -464,2049 +578,2100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN29"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>29507000000</v>
+      </c>
+      <c r="C2">
         <v>30657000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>30993000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>37364000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>28746000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>28718000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>33744000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>38575000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>24485000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>43078000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>46366000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>42007000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>26215000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>3018000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>2701000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>2972000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>4378000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>3153000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>3053000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>3111000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>3083000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>3127000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>3428000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>4480000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>4424000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>3626000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>3459000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>3444000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>4167000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>3358000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>3000000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>2512000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>2699000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>2309000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>2740000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>3108000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>2587000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>3506000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>3501000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>3841000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>352565000000</v>
+      </c>
+      <c r="C3">
         <v>343091000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>334106000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>327442000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>318636000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>314671000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>315108000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>330092000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>324443000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>349364000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>361812000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>360835000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>332881000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>152300000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>154929000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>151302000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>152821000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>149327000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>149321000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>145819000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>146393000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>145660000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>147059000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>146889000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>147973000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>147227000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>146663000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>138627000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>139693000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>138867000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>126313000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>123075000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>122532000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>121495000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>122365000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>119098000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>117994000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>120250000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>119882000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>119862000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>3605000000</v>
+      </c>
+      <c r="C4">
         <v>3585000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3682000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3662000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3700000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3719000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3699000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3787000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>3870000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3968000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>4002000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>3999000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>3712000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>2022000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>2029000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>2078000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>2118000000</v>
-      </c>
-      <c r="R4">
-        <v>2154000000</v>
       </c>
       <c r="S4">
         <v>2154000000</v>
       </c>
       <c r="T4">
+        <v>2154000000</v>
+      </c>
+      <c r="U4">
         <v>2078000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>2055000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>2043000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>2084000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>2104000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>2107000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>2059000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>2088000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>2001000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>2007000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>2038000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>1900000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>1879000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>1827000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>1842000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>1857000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>1854000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>1869000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>1876000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>1893000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>1880000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>129514000000</v>
+      </c>
+      <c r="C5">
         <v>131732000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>139359000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>146415000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>154617000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>151038000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>142888000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>123807000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>120788000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>86132000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>77805000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>78398000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>74727000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>54765000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>45289000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>46410000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>45590000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>45368000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>45668000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>47407000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>47574000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>46631000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>45283000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>44877000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>43606000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>47199000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>47006000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>46480000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>43827000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>43494000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>40620000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>42089000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>41147000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>41891000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>41368000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>41308000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>40205000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>36394000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>38228000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>37289000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>34443000000</v>
+      </c>
+      <c r="C6">
         <v>34333000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>33300000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>32990000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>32139000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>30405000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>29270000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>29546000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>29454000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>28700000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>28975000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>29245000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>29926000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>11429000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>11512000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>11580000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>11698000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>11800000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>11407000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>11415000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>11385000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>11407000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>11452000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>11524000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>11544000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>11347000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>11352000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>10075000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>10114000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>10046000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>8567000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>8244000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>8218000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>8339000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>8374000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>8378000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>8430000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>8374000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>8336000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>8205000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>35128000000</v>
+      </c>
+      <c r="C7">
         <v>35697000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>34676000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>33470000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>32149000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>30051000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>30999000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>30305000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>30673000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>31019000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>31742000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>33752000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>31832000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>16234000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>17113000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>16313000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>13470000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>14236000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>14131000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>14010000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>14235000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>14599000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>15314000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>15107000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>14046000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>14790000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>14750000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>15222000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>14306000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>14364000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>13617000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>13941000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>13110000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>13455000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>14048000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>14013000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>14512000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>14156000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>14396000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>13601000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>202690000000</v>
+      </c>
+      <c r="C8">
         <v>205347000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>211017000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>216537000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>222605000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>215213000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>206856000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>187445000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>184785000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>149819000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>142524000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>145394000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>140197000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>84450000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>75943000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>76381000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>72876000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>73558000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>73360000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>74910000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>75249000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>74680000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>74133000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>73612000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>71303000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>75395000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>75196000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>73778000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>70254000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>69942000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>64704000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>66153000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>64302000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>65527000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>65647000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>65553000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>65016000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>60800000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>62853000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>60975000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>555255000000.0001</v>
+      </c>
+      <c r="C9">
         <v>548438000000.0001</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>545123000000.0001</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>543979000000.0001</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>541241000000.0001</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>529884000000.0001</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>521964000000.0001</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>517537000000.0001</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>509228000000.0001</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>499183000000.0001</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>504336000000.0001</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>506229000000.0001</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>473078000000.0001</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>236750000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>230872000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>227683000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>225697000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>222885000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>222681000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>220729000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>221642000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>220340000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>221192000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>220501000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>219276000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>222622000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>221859000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>212405000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>209947000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>208809000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>191017000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>189228000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>186834000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>187022000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>188012000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>184651000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>183010000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>181050000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>182735000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>180837000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>23422000000</v>
+      </c>
+      <c r="C10">
         <v>25687000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>13736000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>5147000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>5292000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>5226000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>5652000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>5889000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>6092000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>6244000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>5700000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>12696000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>18218000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>10405000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>10344000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>6305000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>5178000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>9652000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>3576000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>4321000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>4938000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>7916000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>6142000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>2019000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>1406000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>4064000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>1472000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>4130000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>3593000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>2581000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>3883000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>3130000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>3717000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>3385000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>3979000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>3285000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>4138000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>4813000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>3192000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>3239000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>413495000000</v>
+      </c>
+      <c r="C11">
         <v>415992000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>424759000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>428328000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>416488000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>405857000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>398279000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>395562000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>381077000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>370747000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>376235000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>350179000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>334727000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>168522000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>166124000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>165766000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>161199000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>159990000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>165192000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>163336000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>163361000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>161708000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>162963000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>166822000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>165979000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>165691000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>166209000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>157213000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>155245000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>154081000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>138731000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>137923000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>135428000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>136968000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>138141000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>134426000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>134570000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>133741000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>138185000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>138053000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>25687000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>13736000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>5147000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>5599000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>5226000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>5652000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>5889000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>11826000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>6244000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>5700000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>13040000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>436917000000</v>
+      </c>
+      <c r="C13">
         <v>441679000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>438495000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>433475000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>421780000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>411083000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>403931000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>401451000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>387169000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>376991000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>381935000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>362875000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>352945000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>178927000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>176468000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>172071000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>166377000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>169642000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>168768000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>167657000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>168299000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>169624000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>169105000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>168841000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>167385000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>169755000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>167681000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>161343000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>158838000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>156662000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>142614000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>141053000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>139145000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>140353000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>142120000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>137711000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>138708000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>138554000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>141377000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>141292000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>43203000000</v>
+      </c>
+      <c r="C14">
         <v>31172000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>30319000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>33773000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>35913000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>37837000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>37969000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>37753000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>39597000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>41008000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>42133000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>65662000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>41339000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>25520000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>22640000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>24729000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>23709000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>23236000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>24081000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>23410000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>23648000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>20863000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>21738000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>21635000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>21965000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>22776000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>24435000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>22823000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>23769000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>24883000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>23271000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>23437000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>23312000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>22355000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>21927000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>23384000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>21493000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>20402000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>19362000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>18316000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>14598000000</v>
+      </c>
+      <c r="C15">
         <v>14776000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>13310000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>11687000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>14277000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>12064000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>11728000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>10457000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>11550000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>11211000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>11385000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>11631000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>12236000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>5433000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>57801000000</v>
+      </c>
+      <c r="C16">
         <v>45948000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>43629000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>45460000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>50190000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>49901000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>49697000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>48210000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>51147000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>52219000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>53518000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>77293000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>53575000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>25520000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>22640000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>24729000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>29142000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>23236000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>24081000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>23410000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>23648000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>20863000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>21738000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>21635000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>21965000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>22776000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>24435000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>22823000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>23769000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>24883000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>23271000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>23437000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>23312000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>22355000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>21927000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>23384000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>21493000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>20402000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>19362000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>18316000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>494718000000.0001</v>
+      </c>
+      <c r="C17">
         <v>487627000000.0001</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>482124000000.0001</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>478935000000.0001</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>471970000000.0001</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>460984000000.0001</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>453628000000.0001</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>449661000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>438316000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>429210000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>435453000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>440168000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>406520000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>204447000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>199108000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>196800000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>195519000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>192878000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>192849000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>191067000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>191947000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>190487000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>190843000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>190476000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>189350000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>192531000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>192116000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>184166000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>182607000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>181545000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>165885000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>164490000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>162457000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>162708000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>164047000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>161095000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>160201000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>158956000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>160739000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>159608000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>34544000000</v>
+      </c>
+      <c r="C18">
         <v>34487000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>34410000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>34539000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>34565000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>34977000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>34898000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>35360000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>35843000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>35774000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>35676000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>35584000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>35609000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>6931000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>6889000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>6843000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>6849000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>7221000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>7364000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>7593000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>7893000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>8192000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>8966000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>9063000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>9104000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>9233000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>9311000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>8360000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>8365000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>8344000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>6667000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>6524000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>6517000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>6494000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>6451000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>6385000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>6172000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>6112000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>6042000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>5975000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
         <v>6673000000</v>
@@ -2527,28 +2692,28 @@
         <v>6673000000</v>
       </c>
       <c r="H19">
+        <v>6673000000</v>
+      </c>
+      <c r="I19">
         <v>7124000000</v>
-      </c>
-      <c r="I19">
-        <v>8048000000</v>
       </c>
       <c r="J19">
         <v>8048000000</v>
       </c>
       <c r="K19">
+        <v>8048000000</v>
+      </c>
+      <c r="L19">
         <v>7143000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>4599000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>5102000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>3057000000</v>
-      </c>
-      <c r="O19">
-        <v>3053000000</v>
       </c>
       <c r="P19">
         <v>3053000000</v>
@@ -2587,10 +2752,10 @@
         <v>3053000000</v>
       </c>
       <c r="AB19">
+        <v>3053000000</v>
+      </c>
+      <c r="AC19">
         <v>3054000000</v>
-      </c>
-      <c r="AC19">
-        <v>2603000000</v>
       </c>
       <c r="AD19">
         <v>2603000000</v>
@@ -2623,747 +2788,765 @@
         <v>2603000000</v>
       </c>
       <c r="AN19">
+        <v>2603000000</v>
+      </c>
+      <c r="AO19">
         <v>2116000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
         <v>6634000000</v>
       </c>
       <c r="C20">
+        <v>6634000000</v>
+      </c>
+      <c r="D20">
         <v>6632000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>6657000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>6639000000</v>
-      </c>
-      <c r="F20">
-        <v>6674000000</v>
       </c>
       <c r="G20">
         <v>6674000000</v>
       </c>
       <c r="H20">
+        <v>6674000000</v>
+      </c>
+      <c r="I20">
         <v>6724000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>6745000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>6741000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>6738000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>6737000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>6711000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>3832000000</v>
-      </c>
-      <c r="O20">
-        <v>3830000000</v>
       </c>
       <c r="P20">
         <v>3830000000</v>
       </c>
       <c r="Q20">
+        <v>3830000000</v>
+      </c>
+      <c r="R20">
         <v>3817000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>3853000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>3872000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>3899000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>3910000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>3945000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>4040000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>4057000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>4047000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>4057000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>4073000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>3912000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>3902000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>3901000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>3667000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>3616000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>3603000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>3601000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>3598000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>3592000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>3533000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>3525000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>3515000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>3507000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>26264000000</v>
+      </c>
+      <c r="C21">
         <v>25344000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>24500000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>23687000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>22998000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>22114000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>21139000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>20184000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>19455000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>18834000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>18373000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>18076000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>19806000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>19440000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>19050000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>18518000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>18118000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>17673000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>17197000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>16712000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>16259000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>15656000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>15321000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>14933000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>14809000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>14459000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>14104000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>13791000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>13464000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>13172000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>12891000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>12632000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>12317000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>11982000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>11634000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>11382000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>11044000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>10669000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>10564000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>10178000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>53864000000</v>
+      </c>
+      <c r="C22">
         <v>54138000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>56326000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>58371000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>62598000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>62227000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>61663000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>60752000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>62864000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>61925000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>61740000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>61462000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>61456000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>29246000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>28711000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>27830000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>27125000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>26954000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>26779000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>26609000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>26642000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>26800000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>27296000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>26972000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>26873000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>27038000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>26690000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>25185000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>24737000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>24661000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>22529000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>22135000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>21774000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>21711000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>21362000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>20953000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>20206000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>19491000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>19393000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>19113000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>60537000000</v>
+      </c>
+      <c r="C23">
         <v>60811000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>62999000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>65044000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>69271000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>68900000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>68336000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>67876000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>70912000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>69973000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>68883000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>66061000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>66558000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>32303000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>31764000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>30883000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>30178000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>30007000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>29832000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>29662000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>29695000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>29853000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>30349000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>30025000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>29926000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>30091000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>29743000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>28239000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>27340000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>27264000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>25132000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>24738000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>24377000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>24314000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>23965000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>23556000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>22809000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>22094000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>21996000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>21229000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>555255000000.0001</v>
+      </c>
+      <c r="C24">
         <v>548438000000.0001</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>545123000000.0001</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>543979000000.0001</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>541241000000.0001</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>529884000000.0001</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>521964000000.0001</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>517537000000.0001</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>509228000000.0001</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>499183000000.0001</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>504336000000.0001</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>506229000000.0001</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>473078000000.0001</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>236750000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>230872000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>227683000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>225697000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>222885000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>222681000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>220729000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>221642000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>220340000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>221192000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>220501000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>219276000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>222622000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>221859000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>212405000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>209947000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>208809000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>191017000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>189228000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>186834000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>187022000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>188012000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>184651000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>183010000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>181050000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>182735000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>180837000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>1326829000</v>
+      </c>
+      <c r="C25">
         <v>1326766000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>1326393000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1331414000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>1327818000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1334892000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1334770000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>1344845000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>1348961000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>1348118000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>1347609000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>1347461000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1342166000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>766303000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>766010000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>765920000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>763326000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>770620000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>774447000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>779752000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>782006000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>788921000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>808093000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>811370000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>809475000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>811424000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>814500000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>782379000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>780337000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>780150000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>733481000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>723159000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>720698000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>720298000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>719584000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>718497000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>706620000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>704925000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>702995000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>701440000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>223000</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C26">
         <v>223000</v>
@@ -3381,28 +3564,28 @@
         <v>223000</v>
       </c>
       <c r="H26">
+        <v>223000</v>
+      </c>
+      <c r="I26">
         <v>107000</v>
-      </c>
-      <c r="I26">
-        <v>280000</v>
       </c>
       <c r="J26">
         <v>280000</v>
       </c>
       <c r="K26">
+        <v>280000</v>
+      </c>
+      <c r="L26">
         <v>243000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>140000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>145000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>125000</v>
-      </c>
-      <c r="O26">
-        <v>126000</v>
       </c>
       <c r="P26">
         <v>126000</v>
@@ -3444,7 +3627,7 @@
         <v>126000</v>
       </c>
       <c r="AC26">
-        <v>107000</v>
+        <v>126000</v>
       </c>
       <c r="AD26">
         <v>107000</v>
@@ -3477,372 +3660,384 @@
         <v>107000</v>
       </c>
       <c r="AN26">
+        <v>107000</v>
+      </c>
+      <c r="AO26">
         <v>87000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>26094000000</v>
+      </c>
+      <c r="C27">
         <v>26478000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>29699000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>32054000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>37132000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>38495000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>39066000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>38330000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>41458000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>41273000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>39908000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>36816000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>36632000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>20874000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>20252000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>19303000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>18480000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>18207000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>18425000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>18247000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>18310000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>18446000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>18897000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>18501000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>18382000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>18744000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>18391000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>18164000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>17226000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>17218000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>16565000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>16494000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>16159000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>15975000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>15591000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>15178000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>14379000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>13720000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>13660000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>13024000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>13696000000</v>
+      </c>
+      <c r="C28">
         <v>26202000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>13062000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1556000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>12766000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>14345000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>9877000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>5067000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>26938000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>4174000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>1467000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>36695000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>15124000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>22502000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>19939000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>21757000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>19331000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>20083000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>21028000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>20299000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>20565000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>17736000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>18310000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>17155000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>17541000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>19150000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>20976000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>19379000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>19602000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>21525000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>20271000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>20925000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>20613000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>20046000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>19187000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>20276000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>18906000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>16896000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>15861000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>14475000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>43203000000</v>
+      </c>
+      <c r="C29">
         <v>56859000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>44055000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>38920000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>41512000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>43063000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>43621000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>43642000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>51423000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>47252000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>47833000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>78702000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>41339000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>25520000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>22640000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>24729000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>23709000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>23236000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>24081000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>23410000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>23648000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>20863000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>21738000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>21635000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>21965000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>22776000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>24435000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>22823000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>23769000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>24883000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>23271000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>23437000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>23312000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>22355000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>21927000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>23384000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>21493000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>20402000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>19362000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>18316000000</v>
       </c>
     </row>
